--- a/Runs/Final_PDI1_RLU2/HepG2/IV_Validation/Validation_set.xlsx
+++ b/Runs/Final_PDI1_RLU2/HepG2/IV_Validation/Validation_set.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M11"/>
+  <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -502,7 +502,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>5099</v>
+        <v>62723</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -528,24 +528,24 @@
         <v>7</v>
       </c>
       <c r="I2" t="n">
-        <v>350</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="K2" t="n">
-        <v>65</v>
+        <v>5</v>
       </c>
       <c r="L2" t="n">
-        <v>-0.002033495682020369</v>
+        <v>-0.008895403984572203</v>
       </c>
       <c r="M2" t="n">
-        <v>1.985291725731947</v>
+        <v>1.935659542979589</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>4704</v>
+        <v>62904</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -568,87 +568,87 @@
         <v>28</v>
       </c>
       <c r="H3" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I3" t="n">
         <v>40</v>
       </c>
       <c r="J3" t="n">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="K3" t="n">
-        <v>65</v>
+        <v>7</v>
       </c>
       <c r="L3" t="n">
-        <v>-0.002512091342699267</v>
+        <v>-0.007674327770538419</v>
       </c>
       <c r="M3" t="n">
-        <v>1.981830043318256</v>
+        <v>1.944491587235695</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>5431</v>
+        <v>11975</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>14PA</t>
+          <t>18PG</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>11.8502</v>
+        <v>9.3028</v>
       </c>
       <c r="E4" t="n">
+        <v>3</v>
+      </c>
+      <c r="F4" t="n">
+        <v>10</v>
+      </c>
+      <c r="G4" t="n">
+        <v>36</v>
+      </c>
+      <c r="H4" t="n">
+        <v>11</v>
+      </c>
+      <c r="I4" t="n">
+        <v>70</v>
+      </c>
+      <c r="J4" t="n">
+        <v>25</v>
+      </c>
+      <c r="K4" t="n">
         <v>2</v>
       </c>
-      <c r="F4" t="n">
-        <v>8</v>
-      </c>
-      <c r="G4" t="n">
-        <v>28</v>
-      </c>
-      <c r="H4" t="n">
-        <v>10</v>
-      </c>
-      <c r="I4" t="n">
-        <v>350</v>
-      </c>
-      <c r="J4" t="n">
-        <v>35</v>
-      </c>
-      <c r="K4" t="n">
-        <v>25</v>
-      </c>
       <c r="L4" t="n">
-        <v>-0.01503499446979781</v>
+        <v>-0.01244217206905853</v>
       </c>
       <c r="M4" t="n">
-        <v>1.891251884999952</v>
+        <v>1.9100057694245</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1550</v>
+        <v>5166</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>DOPE</t>
+          <t>18PG</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>9.784000000000001</v>
+        <v>9.3028</v>
       </c>
       <c r="E5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G5" t="n">
         <v>36</v>
@@ -657,41 +657,41 @@
         <v>7</v>
       </c>
       <c r="I5" t="n">
-        <v>250</v>
+        <v>20</v>
       </c>
       <c r="J5" t="n">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="K5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L5" t="n">
-        <v>0.612252661886544</v>
+        <v>-0.008429618827395766</v>
       </c>
       <c r="M5" t="n">
-        <v>6.428423503425373</v>
+        <v>1.939028567021446</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1610</v>
+        <v>5265</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>DOPE</t>
+          <t>18PG</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>9.784000000000001</v>
+        <v>9.3028</v>
       </c>
       <c r="E6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G6" t="n">
         <v>36</v>
@@ -700,24 +700,24 @@
         <v>7</v>
       </c>
       <c r="I6" t="n">
-        <v>250</v>
+        <v>30</v>
       </c>
       <c r="J6" t="n">
-        <v>25</v>
+        <v>70</v>
       </c>
       <c r="K6" t="n">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="L6" t="n">
-        <v>-0.002479157988414739</v>
+        <v>-0.006707855292591367</v>
       </c>
       <c r="M6" t="n">
-        <v>1.982068250269796</v>
+        <v>1.951482082668687</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>3078</v>
+        <v>34014</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -740,27 +740,27 @@
         <v>36</v>
       </c>
       <c r="H7" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="I7" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="J7" t="n">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="K7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L7" t="n">
-        <v>0.8839038057831911</v>
+        <v>0.7312718093388721</v>
       </c>
       <c r="M7" t="n">
-        <v>8.393276227229821</v>
+        <v>7.289288996948063</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2305</v>
+        <v>36322</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -783,27 +783,27 @@
         <v>36</v>
       </c>
       <c r="H8" t="n">
+        <v>9</v>
+      </c>
+      <c r="I8" t="n">
+        <v>80</v>
+      </c>
+      <c r="J8" t="n">
+        <v>35</v>
+      </c>
+      <c r="K8" t="n">
         <v>5</v>
       </c>
-      <c r="I8" t="n">
-        <v>70</v>
-      </c>
-      <c r="J8" t="n">
-        <v>25</v>
-      </c>
-      <c r="K8" t="n">
-        <v>4</v>
-      </c>
       <c r="L8" t="n">
-        <v>0.801993053127648</v>
+        <v>0.8839038057831911</v>
       </c>
       <c r="M8" t="n">
-        <v>7.800815753272278</v>
+        <v>8.393276227229821</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>3282</v>
+        <v>36100</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -826,27 +826,27 @@
         <v>36</v>
       </c>
       <c r="H9" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I9" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="J9" t="n">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="K9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L9" t="n">
-        <v>0.7521097710479026</v>
+        <v>0.8839038057831911</v>
       </c>
       <c r="M9" t="n">
-        <v>7.440009973989479</v>
+        <v>8.393276227229821</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>3083</v>
+        <v>33674</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -869,27 +869,27 @@
         <v>36</v>
       </c>
       <c r="H10" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="I10" t="n">
-        <v>350</v>
+        <v>60</v>
       </c>
       <c r="J10" t="n">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="K10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L10" t="n">
-        <v>0.5745667166391373</v>
+        <v>0.8839038057831911</v>
       </c>
       <c r="M10" t="n">
-        <v>6.155841061450881</v>
+        <v>8.393276227229821</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>2436</v>
+        <v>35914</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -912,22 +912,108 @@
         <v>36</v>
       </c>
       <c r="H11" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="I11" t="n">
+        <v>60</v>
+      </c>
+      <c r="J11" t="n">
+        <v>25</v>
+      </c>
+      <c r="K11" t="n">
+        <v>2</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0.843611010563545</v>
+      </c>
+      <c r="M11" t="n">
+        <v>8.101838439406121</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>36099</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>DOTAP</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" t="n">
+        <v>12.515</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>4</v>
+      </c>
+      <c r="G12" t="n">
+        <v>36</v>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+      <c r="I12" t="n">
+        <v>90</v>
+      </c>
+      <c r="J12" t="n">
+        <v>50</v>
+      </c>
+      <c r="K12" t="n">
+        <v>3</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0.8839038057831911</v>
+      </c>
+      <c r="M12" t="n">
+        <v>8.393276227229821</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>45502</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>DSPC</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>1</v>
+      </c>
+      <c r="D13" t="n">
+        <v>6.12</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>8</v>
+      </c>
+      <c r="G13" t="n">
+        <v>36</v>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+      <c r="I13" t="n">
         <v>40</v>
       </c>
-      <c r="J11" t="n">
-        <v>55</v>
-      </c>
-      <c r="K11" t="n">
-        <v>85</v>
-      </c>
-      <c r="L11" t="n">
-        <v>-0.001824699625288395</v>
-      </c>
-      <c r="M11" t="n">
-        <v>1.986801947610289</v>
+      <c r="J13" t="n">
+        <v>30</v>
+      </c>
+      <c r="K13" t="n">
+        <v>2</v>
+      </c>
+      <c r="L13" t="n">
+        <v>-0.007752067649690714</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1.943929294689787</v>
       </c>
     </row>
   </sheetData>
